--- a/biology/Biologie cellulaire et moléculaire/Tissu_biologique/Tissu_biologique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Tissu_biologique/Tissu_biologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tissu, en biologie, est un ensemble de cellules semblables et de même origine, regroupées en amas, réseau ou faisceau (fibre). Il constitue le niveau d'organisation intermédiaire entre la cellule et l'organe. Un tissu forme un ensemble fonctionnel, c'est-à-dire que ses cellules concourent à une même fonction. Les tissus biologiques se régénèrent régulièrement et sont assemblés entre eux pour former des organes.
 La science qui étudie les tissus est l'histologie.
@@ -512,9 +524,11 @@
           <t>Tissus chez les animaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plus d'une centaine de tissus chez les animaux. Tous sont regroupés en quatre grandes catégories selon leur morphologie[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plus d'une centaine de tissus chez les animaux. Tous sont regroupés en quatre grandes catégories selon leur morphologie :
 le tissu épithélial est un ensemble de cellules serrées les unes aux autres formant un ensemble avasculaire mais innervé, séparé d'un tissu conjonctif sous-jacent par une structure de soutien, la lame basale. Ce type de tissu est de revêtement lorsqu'il se retrouve sur les surfaces qui jouxtent le milieu externe ou les cavités de l'organisme. Il est glandulaire lorsqu'il est regroupé en structure spécialisée dans la production de sécrétion ou d'hormone. Le tissu épithélial dérive essentiellement de l'endoderme et de l'ectoderme, et dans une faible part du mésoderme ;
 le tissu conjonctif, dont les cellules sont disjointes, séparées par des matériaux extracellulaires, est une large gamme de tissus. On trouve dans cet ensemble le sang, le squelette des vertébrés, les couches profondes de la peau, etc. Il a en général un rôle de soutien. Le tissu conjonctif dérive du mésoderme ;
 le tissu musculaire est formé de cellules contractiles et permet le mouvement. Il dérive du mésoderme ;
@@ -548,7 +562,9 @@
           <t>Tissus chez les végétaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe quelques dizaines de tissus chez les végétaux. Ils sont regroupés en plusieurs types :
 les méristèmes ;
